--- a/python/two/night2 Error t1=6 t2=3 δ=0.9.xlsx
+++ b/python/two/night2 Error t1=6 t2=3 δ=0.9.xlsx
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.68e-05</v>
+        <v>-0.0418</v>
       </c>
       <c r="E2" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.347</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4.79</v>
+        <v>5.66</v>
       </c>
       <c r="D3" t="n">
-        <v>59.6</v>
+        <v>88.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.06</v>
+        <v>5.96</v>
       </c>
       <c r="F3" t="n">
-        <v>-64.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>1.65e-05</v>
+        <v>0.188</v>
       </c>
       <c r="E4" t="n">
         <v>0.0001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0774</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865</v>
+        <v>0.841</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.92</v>
+        <v>-6.54</v>
       </c>
       <c r="E5" t="n">
-        <v>0.825</v>
+        <v>0.18</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.289999999999999</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.000114</v>
+        <v>-1.11e-14</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.77e-06</v>
+        <v>6640</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5390</v>
+        <v>3310</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.1e-09</v>
+        <v>34</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.7</v>
+        <v>17</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
